--- a/translation_names.xlsx
+++ b/translation_names.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Drahni</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Tymofii</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Drahni</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Komarova</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Myroslava</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Komarova</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Yaniohlo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Yuliia</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Yaniohlo</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Yamandi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Maryna</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Yamandi</t>
         </is>
       </c>
     </row>
@@ -511,12 +511,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Hurzhii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Kseniia</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Hurzhii</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Zhuzhunova</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Olha</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Zhuzhunova</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Samoilova</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Anastasiia</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Samoilova</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Didenko</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Vitalii</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Didenko</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Yuhalenko</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Vladyslava</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Yuhalenko</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Uzun</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Serhii</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Uzun</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Hamov</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Dmytro</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Hamov</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Mohuchova</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Olha</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Mohuchova</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Malykhin</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>Artem</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Malykhin</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Lysenko</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>Iryna</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Lysenko</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Huhai</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Anhelina</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Huhai</t>
         </is>
       </c>
     </row>
@@ -676,12 +676,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Kudiarova</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Yuliia</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Kudiarova</t>
         </is>
       </c>
     </row>
@@ -691,12 +691,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Marharynt</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>Marianna</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Marharynt</t>
         </is>
       </c>
     </row>
@@ -706,12 +706,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Myrzakhmedova</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>Anastasiia</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Myrzakhmedova</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Tataru</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>Yuliia</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Tataru</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Tikhnia</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Halyna</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Tikhnia</t>
         </is>
       </c>
     </row>
@@ -751,12 +751,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>Russieva</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>Krystyna</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Russieva</t>
         </is>
       </c>
     </row>
@@ -766,12 +766,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>Hrosu</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>Alina</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Hrosu</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Dimitrova</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>Yana</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Dimitrova</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>Hramma</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>Dariia</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Hramma</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>Frumuzaki</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>Yuliia</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Frumuzaki</t>
         </is>
       </c>
     </row>
@@ -826,12 +826,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Stoilovskyi</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>Serhii</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Stoilovskyi</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Dulharu</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>Iryna</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Dulharu</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>Delinska</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>Anastasiia</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Delinska</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>Povoliashko</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>Kyrylo</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Povoliashko</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>Lukin</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>Vladyslav</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Lukin</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>Stepanov</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>Oleksandr</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Stepanov</t>
         </is>
       </c>
     </row>
@@ -916,12 +916,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>Kolesnykov</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>Oleksandr</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Kolesnykov</t>
         </is>
       </c>
     </row>
@@ -931,12 +931,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>Starysh</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>Ivan</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Starysh</t>
         </is>
       </c>
     </row>
@@ -946,12 +946,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>Pietkova</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>Sofiia</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Pietkova</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>Shmyrova</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>Natalia</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Shmyrova</t>
         </is>
       </c>
     </row>
@@ -976,12 +976,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>Popazov</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>Dohdan</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Popazov</t>
         </is>
       </c>
     </row>
@@ -991,12 +991,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>Erika</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Kim</t>
         </is>
       </c>
     </row>
@@ -1006,12 +1006,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>Ulezko</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>Rostyslav</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Ulezko</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>Hrosu</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>Yhor</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Hrosu</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>Hnylychenko</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>Anastasiia</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Hnylychenko</t>
         </is>
       </c>
     </row>
@@ -1051,12 +1051,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>Kravchenko</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>Ihor</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Kravchenko</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>Koshelnyk</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>Yuliia</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Koshelnyk</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1081,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>Denysov</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>Hryhorii</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Denysov</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>Oarzy</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>Dariia</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Oarzy</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1111,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>Kvasha</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>Ahneta</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Kvasha</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>Dorshch</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>Daria</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Dorshch</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1141,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>Vladychenko</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>Ivan</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Vladychenko</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>Kachanzhi</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>Daria</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Kachanzhi</t>
         </is>
       </c>
     </row>
@@ -1171,12 +1171,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>Martyniuk</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>Anastasiia</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Martyniuk</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1186,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>Mynkovska</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>Anastasiia</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Mynkovska</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>Shpachenko</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>Liudmyla</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Shpachenko</t>
         </is>
       </c>
     </row>

--- a/translation_names.xlsx
+++ b/translation_names.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>№</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
@@ -442,6 +447,26 @@
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Surname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Name_TW</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Surname_TW</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Specialty number</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Corp_emails</t>
         </is>
       </c>
     </row>
@@ -451,12 +476,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Драгні</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Тимофій</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tymofii</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Drahni</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Tymofii</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>drahni113@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -466,12 +511,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Комарова</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Мирослава</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Myroslava</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Komarova</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Myroslava</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>komarova113@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -481,12 +546,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Яніогло</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Юлія</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Yuliia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Yaniohlo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Yuliia</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>yaniohlo014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -496,12 +581,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Яманді</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Марина</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Maryna</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Yamandi</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Maryna</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>yamandi014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -511,12 +616,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Гуржій</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ксенія</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Kseniia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Hurzhii</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Kseniia</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>hurzhii014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -526,12 +651,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Жужунова</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ольга</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Olha</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Zhuzhunova</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Olha</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>zhuzhunova014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -541,12 +686,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Самойлова</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Анастасія</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Anastasiia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Samoilova</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Anastasiia</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>samoilova014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -556,12 +721,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Діденко</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Віталій</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Vitalii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Didenko</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Vitalii</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>didenko014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -571,12 +756,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Югаленко</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Владислава</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Vladyslava</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Yuhalenko</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Vladyslava</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>yuhalenko014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -586,12 +791,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Узун</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Сергій</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Serhii</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Uzun</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Serhii</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>uzun014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -601,12 +826,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Гамов</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Дмитро</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Dmytro</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Hamov</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Dmytro</t>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>hamov014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -616,12 +861,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Могучова</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ольга</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Olha</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Mohuchova</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Olha</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>mohuchova014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -631,12 +896,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Малихін</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Артем</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Artem</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Malykhin</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Artem</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>malykhin014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -646,12 +931,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Лисенко</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ірина</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Iryna</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Lysenko</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Iryna</t>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>lysenko014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -661,12 +966,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Гугай</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ангеліна</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Anhelina</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Huhai</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Anhelina</t>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>huhai014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -676,12 +1001,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Кудьярова</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Юлія</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Yuliia</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Kudiarova</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Yuliia</t>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>kudiarova014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -691,12 +1036,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Маргаринт</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Маріанна</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Marianna</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Marharynt</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Marianna</t>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>marharynt014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -706,12 +1071,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Мирзахмедова</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Анастасія</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Anastasiia</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Myrzakhmedova</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Anastasiia</t>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>myrzakhmedova014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -721,12 +1106,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Татару</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Юлія</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Yuliia</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Tataru</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Yuliia</t>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>tataru014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -736,12 +1141,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Тіхня</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Галина</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Halyna</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Tikhnia</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Halyna</t>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>tikhnia014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -751,12 +1176,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>Руссєва</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Кристина</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Krystyna</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Russieva</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Krystyna</t>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>russieva014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -766,12 +1211,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>Гросу</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Аліна</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Alina</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Hrosu</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Alina</t>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>hrosu014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -781,12 +1246,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Дімітрова</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Яна</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Yana</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Dimitrova</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Yana</t>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>dimitrova014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -796,12 +1281,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>Грамма</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Дарія</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Dariia</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Hramma</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Dariia</t>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>hramma014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -811,12 +1316,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>Фрумузакі</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Юлія</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Yuliia</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Frumuzaki</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Yuliia</t>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>frumuzaki014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -826,12 +1351,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Стойловський</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Сергій</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Serhii</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Stoilovskyi</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Serhii</t>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>stoilovskyi014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -841,12 +1386,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Булгару</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ірина</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Iryna</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Dulharu</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Iryna</t>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>071</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>bulharu071@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -856,12 +1421,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>Белінська</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Анастасія</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Anastasiia</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Delinska</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Anastasiia</t>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>071</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>belinska071@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -871,12 +1456,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>Поволяшко</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Кирило</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Kyrylo</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Povoliashko</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Kyrylo</t>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>povoliashko014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -886,12 +1491,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>Лукін</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Владислав</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Vladyslav</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Lukin</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Vladyslav</t>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>lukin014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -901,12 +1526,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>Степанов</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Олександр</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Oleksandr</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Stepanov</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Oleksandr</t>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>stepanov014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -916,12 +1561,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>Колесников</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Олександр</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Oleksandr</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Kolesnykov</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Oleksandr</t>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>kolesnykov014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -931,12 +1596,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>Стариш</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Іван</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Ivan</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Starysh</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Ivan</t>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>starysh014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -946,12 +1631,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>Пєткова</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Софія</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Sofiia</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Pietkova</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Sofiia</t>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>pietkova014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -961,12 +1666,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>Шмирьова</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Наталя</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Natalia</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Shmyrova</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Natalia</t>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>shmyrova014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -976,12 +1701,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>Попазов</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Богдан</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Dohdan</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>Popazov</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Dohdan</t>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>popazov014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -991,12 +1736,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>Кім</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Еріка</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>Kim</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Erika</t>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>kim_erika014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1006,12 +1771,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>Улезько</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ростислав</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Rostyslav</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Ulezko</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Rostyslav</t>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>ulezko014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1806,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>Гросу</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Игорь</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Yhor</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>Hrosu</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Yhor</t>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>hrosu_ihor014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1841,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>Гниличенко</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Анастасія</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Anastasiia</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>Hnylychenko</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Anastasiia</t>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>hnylychenko014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1051,12 +1876,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>Кравченко</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ігор</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Ihor</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Kravchenko</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Ihor</t>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>kravchenko014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1911,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>Кошельник</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Юлія</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Yuliia</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>Koshelnyk</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Yuliia</t>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>koshelnyk014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1946,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>Денисов</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Григорій</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Hryhorii</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>Denysov</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Hryhorii</t>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>denysov014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1981,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>Оарзи</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Дарія</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Dariia</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Oarzy</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Dariia</t>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>oarzy014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1111,12 +2016,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>Кваша</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Агнета</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Ahneta</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>Kvasha</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Ahneta</t>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>kvasha014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1126,12 +2051,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>Борщ</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Дар'я</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Daria</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>Dorshch</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Daria</t>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>073</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>borshch073@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1141,12 +2086,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>Владиченко</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Іван</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Ivan</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>Vladychenko</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Ivan</t>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>073</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>vladychenko073@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1156,12 +2121,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>Качанжі</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Дар'я</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Daria</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>Kachanzhi</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Daria</t>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>073</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>kachanzhi073@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1171,12 +2156,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>Мартинюк</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Анастасія</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Anastasiia</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>Martyniuk</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Anastasiia</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>073</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>martyniuk073@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1186,12 +2191,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>Минковська</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Анастасія</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Anastasiia</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>Mynkovska</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Anastasiia</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>073</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>mynkovska073@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1201,12 +2226,32 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>Шпаченко</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Людмила</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Liudmyla</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>Shpachenko</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Liudmyla</t>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>073</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>shpachenko073@idguonline.net</t>
         </is>
       </c>
     </row>

--- a/translation_names.xlsx
+++ b/translation_names.xlsx
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -501,13 +501,13 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>drahni113@idguonline.net</t>
+          <t>drahni_113@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -536,13 +536,13 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>komarova113@idguonline.net</t>
+          <t>komarova_113@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -571,13 +571,13 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>yaniohlo014@idguonline.net</t>
+          <t>yaniohlo_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -606,13 +606,13 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>yamandi014@idguonline.net</t>
+          <t>yamandi_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -641,13 +641,13 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>hurzhii014@idguonline.net</t>
+          <t>hurzhii_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -676,13 +676,13 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>zhuzhunova014@idguonline.net</t>
+          <t>zhuzhunova_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -711,13 +711,13 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>samoilova014@idguonline.net</t>
+          <t>samoilova_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -746,13 +746,13 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>didenko014@idguonline.net</t>
+          <t>didenko_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -781,13 +781,13 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>yuhalenko014@idguonline.net</t>
+          <t>yuhalenko_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -816,13 +816,13 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>uzun014@idguonline.net</t>
+          <t>uzun_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -851,13 +851,13 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>hamov014@idguonline.net</t>
+          <t>hamov_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -886,13 +886,13 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>mohuchova014@idguonline.net</t>
+          <t>mohuchova_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -921,13 +921,13 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>malykhin014@idguonline.net</t>
+          <t>malykhin_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -956,13 +956,13 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>lysenko014@idguonline.net</t>
+          <t>lysenko_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -991,13 +991,13 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>huhai014@idguonline.net</t>
+          <t>huhai_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1026,13 +1026,13 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>kudiarova014@idguonline.net</t>
+          <t>kudiarova_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1061,13 +1061,13 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>marharynt014@idguonline.net</t>
+          <t>marharynt_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1096,13 +1096,13 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>myrzakhmedova014@idguonline.net</t>
+          <t>myrzakhmedova_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1131,13 +1131,13 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>tataru014@idguonline.net</t>
+          <t>tataru_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1166,13 +1166,13 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>tikhnia014@idguonline.net</t>
+          <t>tikhnia_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1201,13 +1201,13 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>russieva014@idguonline.net</t>
+          <t>russieva_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1236,13 +1236,13 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>hrosu014@idguonline.net</t>
+          <t>hrosu_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1271,13 +1271,13 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>dimitrova014@idguonline.net</t>
+          <t>dimitrova_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1306,13 +1306,13 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>hramma014@idguonline.net</t>
+          <t>hramma_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1341,13 +1341,13 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>frumuzaki014@idguonline.net</t>
+          <t>frumuzaki_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1376,13 +1376,13 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>stoilovskyi014@idguonline.net</t>
+          <t>stoilovskyi_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1411,13 +1411,13 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>bulharu071@idguonline.net</t>
+          <t>dulharu_71@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1446,13 +1446,13 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>belinska071@idguonline.net</t>
+          <t>delinska_71@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1481,13 +1481,13 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>povoliashko014@idguonline.net</t>
+          <t>povoliashko_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1516,13 +1516,13 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>lukin014@idguonline.net</t>
+          <t>lukin_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1551,13 +1551,13 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>stepanov014@idguonline.net</t>
+          <t>stepanov_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1586,13 +1586,13 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>kolesnykov014@idguonline.net</t>
+          <t>kolesnykov_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1621,13 +1621,13 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>starysh014@idguonline.net</t>
+          <t>starysh_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1656,13 +1656,13 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>pietkova014@idguonline.net</t>
+          <t>pietkova_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1691,13 +1691,13 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>shmyrova014@idguonline.net</t>
+          <t>shmyrova_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1726,13 +1726,13 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>popazov014@idguonline.net</t>
+          <t>popazov_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1761,13 +1761,13 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>kim_erika014@idguonline.net</t>
+          <t>kim_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1796,13 +1796,13 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>ulezko014@idguonline.net</t>
+          <t>ulezko_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1831,13 +1831,13 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>hrosu_ihor014@idguonline.net</t>
+          <t>hrosu_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1866,13 +1866,13 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>hnylychenko014@idguonline.net</t>
+          <t>hnylychenko_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1901,13 +1901,13 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>kravchenko014@idguonline.net</t>
+          <t>kravchenko_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1936,13 +1936,13 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>koshelnyk014@idguonline.net</t>
+          <t>koshelnyk_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1971,13 +1971,13 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>denysov014@idguonline.net</t>
+          <t>denysov_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2006,13 +2006,13 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>oarzy014@idguonline.net</t>
+          <t>oarzy_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2041,13 +2041,13 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>kvasha014@idguonline.net</t>
+          <t>kvasha_14@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2076,13 +2076,13 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>borshch073@idguonline.net</t>
+          <t>dorshch_73@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2111,13 +2111,13 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>vladychenko073@idguonline.net</t>
+          <t>vladychenko_73@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2146,13 +2146,13 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>kachanzhi073@idguonline.net</t>
+          <t>kachanzhi_73@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2181,13 +2181,13 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>martyniuk073@idguonline.net</t>
+          <t>martyniuk_73@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2216,13 +2216,13 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>mynkovska073@idguonline.net</t>
+          <t>mynkovska_73@idguonline.net</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>shpachenko073@idguonline.net</t>
+          <t>shpachenko_73@idguonline.net</t>
         </is>
       </c>
     </row>

--- a/translation_names.xlsx
+++ b/translation_names.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>yaniohlo_14@idguonline.net</t>
+          <t>yaniohlo_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>yamandi_14@idguonline.net</t>
+          <t>yamandi_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>hurzhii_14@idguonline.net</t>
+          <t>hurzhii_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>zhuzhunova_14@idguonline.net</t>
+          <t>zhuzhunova_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>samoilova_14@idguonline.net</t>
+          <t>samoilova_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>didenko_14@idguonline.net</t>
+          <t>didenko_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>yuhalenko_14@idguonline.net</t>
+          <t>yuhalenko_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>uzun_14@idguonline.net</t>
+          <t>uzun_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>hamov_14@idguonline.net</t>
+          <t>hamov_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>mohuchova_14@idguonline.net</t>
+          <t>mohuchova_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>malykhin_14@idguonline.net</t>
+          <t>malykhin_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>lysenko_14@idguonline.net</t>
+          <t>lysenko_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>huhai_14@idguonline.net</t>
+          <t>huhai_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>kudiarova_14@idguonline.net</t>
+          <t>kudiarova_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>marharynt_14@idguonline.net</t>
+          <t>marharynt_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>myrzakhmedova_14@idguonline.net</t>
+          <t>myrzakhmedova_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>tataru_14@idguonline.net</t>
+          <t>tataru_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>tikhnia_14@idguonline.net</t>
+          <t>tikhnia_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>russieva_14@idguonline.net</t>
+          <t>russieva_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>hrosu_14@idguonline.net</t>
+          <t>hrosu_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>dimitrova_14@idguonline.net</t>
+          <t>dimitrova_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>hramma_14@idguonline.net</t>
+          <t>hramma_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>frumuzaki_14@idguonline.net</t>
+          <t>frumuzaki_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>stoilovskyi_14@idguonline.net</t>
+          <t>stoilovskyi_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>dulharu_71@idguonline.net</t>
+          <t>dulharu_071@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>delinska_71@idguonline.net</t>
+          <t>delinska_071@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>povoliashko_14@idguonline.net</t>
+          <t>povoliashko_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>lukin_14@idguonline.net</t>
+          <t>lukin_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>stepanov_14@idguonline.net</t>
+          <t>stepanov_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>kolesnykov_14@idguonline.net</t>
+          <t>kolesnykov_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>starysh_14@idguonline.net</t>
+          <t>starysh_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>pietkova_14@idguonline.net</t>
+          <t>pietkova_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>shmyrova_14@idguonline.net</t>
+          <t>shmyrova_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>popazov_14@idguonline.net</t>
+          <t>popazov_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>kim_14@idguonline.net</t>
+          <t>kim_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>ulezko_14@idguonline.net</t>
+          <t>ulezko_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>hrosu_14@idguonline.net</t>
+          <t>hrosu_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>hnylychenko_14@idguonline.net</t>
+          <t>hnylychenko_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>kravchenko_14@idguonline.net</t>
+          <t>kravchenko_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>koshelnyk_14@idguonline.net</t>
+          <t>koshelnyk_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>denysov_14@idguonline.net</t>
+          <t>denysov_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>oarzy_14@idguonline.net</t>
+          <t>oarzy_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>kvasha_14@idguonline.net</t>
+          <t>kvasha_014@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>dorshch_73@idguonline.net</t>
+          <t>dorshch_073@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>vladychenko_73@idguonline.net</t>
+          <t>vladychenko_073@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>kachanzhi_73@idguonline.net</t>
+          <t>kachanzhi_073@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>martyniuk_73@idguonline.net</t>
+          <t>martyniuk_073@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>mynkovska_73@idguonline.net</t>
+          <t>mynkovska_073@idguonline.net</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>shpachenko_73@idguonline.net</t>
+          <t>shpachenko_073@idguonline.net</t>
         </is>
       </c>
     </row>

--- a/translation_names.xlsx
+++ b/translation_names.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,27 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Surname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Specialty number</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Name_TW</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Surname_TW</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Corp_emails</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Тест</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Тестович</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Testovych</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Test</t>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>testovych_014@idguonline.net</t>
         </is>
       </c>
     </row>
